--- a/trunk/hot-deploy/partner/document/20130126-二期开发/质量控制需求分析-20130312.xlsx
+++ b/trunk/hot-deploy/partner/document/20130126-二期开发/质量控制需求分析-20130312.xlsx
@@ -4,21 +4,204 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="14130"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="16110" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="需求概览" sheetId="1" r:id="rId1"/>
-    <sheet name="检验项目维护" sheetId="2" r:id="rId2"/>
-    <sheet name="抽样计划维护" sheetId="3" r:id="rId3"/>
-    <sheet name="物料检验项目维护" sheetId="4" r:id="rId4"/>
-    <sheet name="来料检验单" sheetId="5" r:id="rId5"/>
+    <sheet name="工序表维护" sheetId="9" r:id="rId2"/>
+    <sheet name="检验项目维护" sheetId="2" r:id="rId3"/>
+    <sheet name="抽样计划维护" sheetId="3" r:id="rId4"/>
+    <sheet name="物料检验项目维护" sheetId="4" r:id="rId5"/>
+    <sheet name="供应商来料检验单" sheetId="5" r:id="rId6"/>
+    <sheet name="供应商来料品质汇总表" sheetId="6" r:id="rId7"/>
+    <sheet name="车间来料检验单" sheetId="7" r:id="rId8"/>
+    <sheet name="车间工序检验单" sheetId="10" r:id="rId9"/>
+    <sheet name="车间来料品质汇总表" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+批量数必须小于等于待验收数量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据批量数计算，结果取整
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据不合格数自动填入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据用户选择物料自动更新</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据批量数计算，结果取整
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据不合格数自动填入</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="284">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -304,19 +487,823 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来料检验单的新增、删除、修改、提交、撤销等功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来料检验单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来料情况分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分析统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL20130301100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL20130301100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立式衣物架黑色色标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格品数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否罚款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚款金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.约束：一张单检验一个批次的一种物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100M*39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39*48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.批量数：该批次来料总数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料/名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验项目</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验内容和质量要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验工具、方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸托
+纸管
+纸护角</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）纸托、纸管的外包装必须起到有效的防尘、防污作用，不同类型不能混装，并且每个包装内的数量要一致（尾数除外）。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正常AQL1.5一级
+返工AQL1.5二级
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）目测、手感
+2) 规格：对比封样进行检查；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观质量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）表面清洁、干燥，不能有潮湿、油污等问题。成形完整，不能有严重的溢边料及严重破损、缺材、变形等。
+2）表面不能粘附有钢钉、砂粒等硬性物质，磨擦产品不易将涂层磨花。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格、纸质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）规格和纸质应符合包装资料要求或与标准样品一致或相似。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试装检查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 新产品首单进料时必须按照出货要求进行实际包装产品检查。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQL1.5特殊级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 钢卷尺；
+2) 试装配法。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL20130310100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验员：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格品数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否合格：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否接收：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否罚款：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚款金额：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.请提供打印格式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰丰纸制品有限公司</t>
+  </si>
+  <si>
+    <t>中泰纸品有限公司</t>
+  </si>
+  <si>
+    <t>宝盛纸制品厂</t>
+  </si>
+  <si>
+    <t>盛鹏</t>
+  </si>
+  <si>
+    <t>富安五金塑料厂</t>
+  </si>
+  <si>
+    <t>富杰塑料厂</t>
+  </si>
+  <si>
+    <t>富德塑料纱管厂有限公司</t>
+  </si>
+  <si>
+    <t>安泰塑料制品厂</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料总批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格总批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格总批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让步接受总批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚款总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚款总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次合格率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验收数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.待验收数量：从采购单取得，指当前系统待验收物料数量。该数量必须大于等于批量数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.抽样数：根据批量数和抽样比例计算得出，系统自动生成（结果取整数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.不合格品数：检验员根据检查项目检查，将不合格品数填入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.是否合格：根据抽样数和不合格品数计算得到，系统自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.是否接收：按照是否合格自动选择默认值（合格时选择接收，不合格时选择不接收），检验员可以根据实际情况重新选择。当该批次为不合格，用户选择接收，系统会记录一次“让步接收”批次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.是否罚款：又检验员选择是否需要罚款，选择是时，罚款金额不能为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.检验说明：相当于备注，用户可以填入其它需要记录的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.打印功能：需要提供打印格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.导出功能：按照主表展示导出excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商来料检验单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商来料品质汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商来料检验单的新增、删除、修改、提交、撤销等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商来料品质统计汇总表，根据该表可分析供应商供货质量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间来料品质统计汇总表，根据该表可分析车间供货质量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间来料检验单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间来料品质汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华力纸箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌和包装制品有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富安五金塑料厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰顺纸类制品厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰顺纸类制品厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商来料检验单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商来料品质汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胚车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料车间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验车间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胚车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.来料车间：指上游车间，检验车间：指下游车间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材报废日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材报废重量(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求车间改良</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊疤大,打磨不良</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材报废日期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材报废重量(kg)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理措施：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.检验说明：可以记录检验结果，例如不合格说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.处理措施：检验员填写不合格产品的处理方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.打印功能：需要提供打印格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.导出功能：按照主表展示导出excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.钢材报废日期：报废钢材日期。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.钢材报废重量：不合格产品需要报废的钢材重量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.钢材报废日期不是填单日期？钢材报废如何计算重量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>交验
+总数量</t>
+  </si>
+  <si>
+    <t>交验
+总批次</t>
+  </si>
+  <si>
+    <t>合格
+总批次</t>
+  </si>
+  <si>
+    <t>不合格总批次</t>
+  </si>
+  <si>
+    <t>批次
+合格率</t>
+  </si>
+  <si>
+    <t>报废钢材
+总重量
+（㎏）</t>
+  </si>
+  <si>
+    <t>月投产钢材总重量
+（㎏）</t>
+  </si>
+  <si>
+    <t>报废率
+（连铁屎）</t>
+  </si>
+  <si>
+    <t>返工率</t>
+  </si>
+  <si>
+    <t>返工总数</t>
+  </si>
+  <si>
+    <t>黑坯一</t>
+  </si>
+  <si>
+    <t>黑坯二</t>
+  </si>
+  <si>
+    <t>黑坯三</t>
+  </si>
+  <si>
+    <t>黑坯半成品交验合计</t>
+  </si>
+  <si>
+    <t>喷涂二三线</t>
+  </si>
+  <si>
+    <t>喷涂四五线</t>
+  </si>
+  <si>
+    <t>喷涂半成品交验合计</t>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序表维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能路径：基础设置-工序表维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.约束：如果工序已经使用，将无法删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>管缝</t>
+  </si>
+  <si>
+    <t>毛刺</t>
+  </si>
+  <si>
+    <t>角度</t>
+  </si>
+  <si>
+    <t>孔距</t>
+  </si>
+  <si>
+    <t>孔径</t>
+  </si>
+  <si>
+    <t>冲压</t>
+  </si>
+  <si>
+    <t>弯形</t>
+  </si>
+  <si>
+    <t>铆接</t>
+  </si>
+  <si>
+    <t>打磨</t>
+  </si>
+  <si>
+    <t>螺母</t>
+  </si>
+  <si>
+    <t>攻牙</t>
+  </si>
+  <si>
+    <t>配合</t>
+  </si>
+  <si>
+    <t>GX100003</t>
+  </si>
+  <si>
+    <t>GX100004</t>
+  </si>
+  <si>
+    <t>GX100005</t>
+  </si>
+  <si>
+    <t>GX100006</t>
+  </si>
+  <si>
+    <t>GX100007</t>
+  </si>
+  <si>
+    <t>GX100008</t>
+  </si>
+  <si>
+    <t>GX100009</t>
+  </si>
+  <si>
+    <t>GX100010</t>
+  </si>
+  <si>
+    <t>GX100011</t>
+  </si>
+  <si>
+    <t>GX100012</t>
+  </si>
+  <si>
+    <t>GX100013</t>
+  </si>
+  <si>
+    <t>工序表维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序新增，删除，修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间工序检验单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间来料检验单的新增、删除、修改、提交、撤销等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间各个工序检验单的新增、删除、修改、提交、撤销等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑一半成品车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返工数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能路径：质量控制-质量检验-供应商来料检验单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能路径：质量控制-分析统计-供应商来料品质汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能路径：质量控制-质量检验-车间来料检验单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能路径：质量控制-质量检验-车间工序检验单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.表中三个图将使用Tab进行切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能路径：质量控制-分析统计-车间来料品质汇总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.约束：一张单检验一种工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.工序：由工序表维护界面变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.备注：对该检验单进行必要说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.打印功能：需要提供打印格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.导出功能：按照主表展示导出excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.请提供打印格式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.从文档“2013年电脑版黑坯和喷涂半成品检验和返工报废统计表”中发现“部件名称”无法在料品表中查到，后续需要将这些部件添加到料品表中才可以进行选择？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +1314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +1392,42 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,8 +1476,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -516,6 +1543,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,15 +1659,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -587,9 +1717,6 @@
     <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -599,11 +1726,134 @@
     <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,7 +1865,833 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>供应商来料品质汇总表!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>批次合格率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>供应商来料品质汇总表!$B$19:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>华力纸箱</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>泰丰纸制品有限公司</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中泰纸品有限公司</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>丰顺纸类制品厂</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>昌和包装制品有限公司</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>宝盛纸制品厂</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>盛鹏</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>安泰塑料制品厂</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>富安五金塑料厂</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>富杰塑料厂</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>富德塑料纱管厂有限公司</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>供应商来料品质汇总表!$I$19:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99753694581280783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="82377728"/>
+        <c:axId val="83325696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82377728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83325696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83325696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82377728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>车间来料品质汇总表!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>批次
+合格率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>车间来料品质汇总表!$B$20:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>黑坯一</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>黑坯二</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黑坯三</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>黑坯半成品交验合计</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>喷涂二三线</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>喷涂四五线</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>喷涂半成品交验合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>车间来料品质汇总表!$G$20:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.96601941747572817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98523206751054848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="126642048"/>
+        <c:axId val="126643584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126642048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126643584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126643584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126642048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>车间来料品质汇总表!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>报废率
+（连铁屎）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>车间来料品质汇总表!$B$20:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>黑坯一</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>黑坯二</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黑坯三</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>黑坯半成品交验合计</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>喷涂二三线</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>喷涂四五线</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>喷涂半成品交验合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>车间来料品质汇总表!$J$20:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="129098112"/>
+        <c:axId val="129099648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129098112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129099648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129099648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129098112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>车间来料品质汇总表!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>返工率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>车间来料品质汇总表!$B$20:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>黑坯一</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>黑坯二</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黑坯三</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>黑坯半成品交验合计</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>喷涂二三线</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>喷涂四五线</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>喷涂半成品交验合计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>车间来料品质汇总表!$K$20:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.5662007130339083E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3302284522776738E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7649735053256971E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7185007186147845E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.286319533113566E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1958359685662153E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.909844261939987E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="127777792"/>
+        <c:axId val="129053824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127777792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129053824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129053824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127777792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="285750"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1362074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628899" y="285750"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1476374</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2028824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295649" y="285750"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2152649</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2705099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971924" y="285750"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2819399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3371849</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638674" y="285750"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -895,7 +2971,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1175,7 +3251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1450,6 +3526,1581 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="561975"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="304799"/>
+          <a:ext cx="657225" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="304800"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="304800"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打印</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="3171825"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="561975"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="304799"/>
+          <a:ext cx="638175" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="304800"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="304800"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打印</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="561975"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="304799"/>
+          <a:ext cx="638175" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="304800"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="304800"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打印</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="295275"/>
+          <a:ext cx="552450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1740,39 +5391,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="25.125" style="3"/>
+    <col min="1" max="1" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="25.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1807,453 +5458,1204 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="21">
+        <v>41369</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H4" s="21">
         <v>41369</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="21" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H5" s="21">
         <v>41369</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="33">
-      <c r="A5" s="5">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="33">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="21" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H6" s="21">
         <v>41376</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="C11" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="22" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="22" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="22" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14">
       <formula1>"低,中,高"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H11">
       <formula1>40909</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F14">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" location="检验项目维护!A1" display="检验项目维护"/>
-    <hyperlink ref="C4" location="抽样计划维护!A1" display="抽样计划维护"/>
-    <hyperlink ref="C5" location="物料检验项目维护!A1" display="物料检验项目维护"/>
+    <hyperlink ref="C3" location="工序表维护!A1" display="工序表维护"/>
+    <hyperlink ref="C5" location="抽样计划维护!A1" display="抽样计划维护"/>
+    <hyperlink ref="C6" location="物料检验项目维护!A1" display="物料检验项目维护"/>
+    <hyperlink ref="C7" location="供应商来料检验单!A1" display="供应商来料检验单"/>
+    <hyperlink ref="C11" location="供应商来料品质汇总表!A1" display="供应商来料品质汇总表"/>
+    <hyperlink ref="C8" location="车间来料检验单!A1" display="车间来料检验单"/>
+    <hyperlink ref="C12" location="车间来料品质汇总表!A1" display="车间来料品质汇总表"/>
+    <hyperlink ref="C4" location="检验项目维护!A1" display="检验项目维护"/>
+    <hyperlink ref="C9" location="车间工序检验单!A1" display="车间工序检验单"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" ht="21">
+      <c r="A2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="37">
+        <v>41334</v>
+      </c>
+      <c r="C2" s="6">
+        <v>41343</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33">
-      <c r="A4" s="5">
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7">
-        <v>41306</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7">
-        <v>41334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66">
-      <c r="A5" s="5">
+      <c r="B20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="4">
+        <v>648777</v>
+      </c>
+      <c r="D20" s="4">
+        <v>206</v>
+      </c>
+      <c r="E20" s="4">
+        <v>199</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0.96601941747572817</v>
+      </c>
+      <c r="H20" s="4">
+        <v>17595</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="39">
+        <v>0</v>
+      </c>
+      <c r="K20" s="39">
+        <v>6.5662007130339083E-3</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7">
-        <v>41306</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7">
-        <v>41306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="B21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="4">
+        <v>328515</v>
+      </c>
+      <c r="D21" s="4">
+        <v>242</v>
+      </c>
+      <c r="E21" s="4">
+        <v>242</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>10070</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39">
+        <v>0</v>
+      </c>
+      <c r="K21" s="39">
+        <v>1.3302284522776738E-3</v>
+      </c>
+      <c r="L21" s="4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="B22" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="4">
+        <v>74732</v>
+      </c>
+      <c r="D22" s="4">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="39">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>11200</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0</v>
+      </c>
+      <c r="K22" s="39">
+        <v>1.7649735053256971E-2</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1052024</v>
+      </c>
+      <c r="D23" s="4">
+        <v>474</v>
+      </c>
+      <c r="E23" s="4">
+        <v>467</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" s="39">
+        <v>0.98523206751054848</v>
+      </c>
+      <c r="H23" s="4">
+        <v>38865</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="39">
+        <v>0</v>
+      </c>
+      <c r="K23" s="39">
+        <v>5.7185007186147845E-3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1134837</v>
+      </c>
+      <c r="D24" s="4">
+        <v>136</v>
+      </c>
+      <c r="E24" s="4">
+        <v>136</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="39">
+        <v>0</v>
+      </c>
+      <c r="K24" s="39">
+        <v>2.286319533113566E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>25946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="4">
+        <v>550236</v>
+      </c>
+      <c r="D25" s="4">
+        <v>180</v>
+      </c>
+      <c r="E25" s="4">
+        <v>180</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1350</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>4.1958359685662153E-2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>23087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1685073</v>
+      </c>
+      <c r="D26" s="4">
+        <v>316</v>
+      </c>
+      <c r="E26" s="4">
+        <v>316</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1350</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39">
+        <v>2.909844261939987E-2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>49033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="62">
+        <v>8</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="62">
+        <v>2737097</v>
+      </c>
+      <c r="D27" s="62">
+        <v>790</v>
+      </c>
+      <c r="E27" s="62">
+        <v>783</v>
+      </c>
+      <c r="F27" s="62">
+        <v>7</v>
+      </c>
+      <c r="G27" s="63">
+        <v>0.99113924050632907</v>
+      </c>
+      <c r="H27" s="62">
+        <v>40215</v>
+      </c>
+      <c r="I27" s="62">
+        <v>0</v>
+      </c>
+      <c r="J27" s="63">
+        <v>0</v>
+      </c>
+      <c r="K27" s="63">
+        <v>2.0112184551734923E-2</v>
+      </c>
+      <c r="L27" s="62">
+        <v>55049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+    <row r="30" spans="1:12">
+      <c r="B30" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <v>41306</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2267,153 +6669,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" ht="33">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>41306</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>41334</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" ht="49.5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>41306</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>41306</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="3" t="s">
-        <v>36</v>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="3" t="s">
-        <v>37</v>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2430,250 +6833,421 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>41306</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>41306</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>0.1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.05</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>41306</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>41334</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>0.2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>0.15</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>41306</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>41306</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="132">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2687,17 +7261,2311 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21">
+      <c r="A1" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="1:17" ht="21">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" ht="21">
+      <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="37">
+        <v>41334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>41343</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20130301</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="4">
+        <v>60000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="4">
+        <v>200</v>
+      </c>
+      <c r="L5" s="4">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="40">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="41">
+        <v>20130301</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="40">
+        <v>9000</v>
+      </c>
+      <c r="J6" s="40">
+        <v>9000</v>
+      </c>
+      <c r="K6" s="40">
+        <v>150</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="30">
+        <v>41343</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="29">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="29">
+        <v>100</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="29">
+        <v>10</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" s="48"/>
+    </row>
+    <row r="24" spans="1:14" ht="27.75" customHeight="1">
+      <c r="B24" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" s="50"/>
+    </row>
+    <row r="25" spans="1:14" ht="44.25" customHeight="1">
+      <c r="B25" s="49"/>
+      <c r="C25" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1">
+      <c r="B26" s="49"/>
+      <c r="C26" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+    </row>
+    <row r="27" spans="1:14" ht="28.5" customHeight="1">
+      <c r="B27" s="49"/>
+      <c r="C27" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="58"/>
+      <c r="M27" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="N27" s="50"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L26"/>
+    <mergeCell ref="M24:N26"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="37">
+        <v>41334</v>
+      </c>
+      <c r="C2" s="6">
+        <v>41343</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="4">
+        <v>406</v>
+      </c>
+      <c r="D19" s="4">
+        <v>405</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>300</v>
+      </c>
+      <c r="I19" s="39">
+        <v>0.99753694581280783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="4">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="4">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="4">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="4">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4">
+        <v>21</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="4">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4">
+        <v>16</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21">
+      <c r="A1" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16" ht="21">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" ht="21">
+      <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="37">
+        <v>41334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>41343</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20130301</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="4">
+        <v>60000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>200</v>
+      </c>
+      <c r="K5" s="4">
+        <v>25</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="4">
+        <v>20130302</v>
+      </c>
+      <c r="P5" s="59">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="40">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="41">
+        <v>20130301</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="40">
+        <v>9000</v>
+      </c>
+      <c r="J6" s="40">
+        <v>150</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="40"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="30">
+        <v>41343</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="29">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="29">
+        <v>100</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="29">
+        <v>10</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="30">
+        <v>41343</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="29">
+        <v>110</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" ht="22.5" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21">
+      <c r="A1" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" spans="1:16" ht="21">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" ht="21">
+      <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="37">
+        <v>41334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>41343</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20130301</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="4">
+        <v>20</v>
+      </c>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="40">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="41">
+        <v>20130301</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="40">
+        <v>10</v>
+      </c>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="30">
+        <v>41343</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="29">
+        <v>200</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" ht="22.5" customHeight="1">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>